--- a/excel_to_config/excel_data/symp_rule.xlsx
+++ b/excel_to_config/excel_data/symp_rule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taohuadao/Desktop/DFA匹配算法/model/excel_to_config/excel_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taohuadao/Downloads/毕业设计/DFA匹配算法/model/excel_to_config/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45E97184-8D37-7E4D-92D1-C2291C062D4F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{211A20A0-4D2A-C045-92C7-0C95F99682BA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="720" windowWidth="16140" windowHeight="16500" xr2:uid="{A248186E-6FFC-AD46-9074-1FA74DF53F22}"/>
+    <workbookView xWindow="9180" yWindow="460" windowWidth="16140" windowHeight="16500" xr2:uid="{A248186E-6FFC-AD46-9074-1FA74DF53F22}"/>
   </bookViews>
   <sheets>
     <sheet name="意图说法表" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="144">
   <si>
     <t>动作</t>
     <rPh sb="0" eb="2">
@@ -140,13 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上臂内侧疼痛</t>
-    <rPh sb="0" eb="2">
-      <t>shang bi nei ce teng ton</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>痛|疼|疼痛</t>
     <rPh sb="0" eb="1">
       <t>ten</t>
@@ -165,13 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手臂内侧</t>
-    <rPh sb="0" eb="2">
-      <t>shou b</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内侧|里边|里面</t>
     <rPh sb="0" eb="2">
       <t>nei c</t>
@@ -309,20 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>气少</t>
-    <rPh sb="0" eb="2">
-      <t>qi shao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气微</t>
-    <rPh sb="0" eb="2">
-      <t>qi we</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微弱</t>
     <rPh sb="0" eb="2">
       <t>wei ru</t>
@@ -362,13 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上臂|肘臂|大臂|手臂上面|手臂上边</t>
-    <rPh sb="0" eb="2">
-      <t>shang b</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>咽痛</t>
   </si>
   <si>
@@ -383,9 +348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>膝关节疼痛</t>
-  </si>
-  <si>
     <t>膝盖</t>
     <rPh sb="0" eb="2">
       <t>xi ga</t>
@@ -398,9 +360,6 @@
       <t>xi ga</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肘臂痉挛疼痛</t>
   </si>
   <si>
     <t>痉挛|抽筋</t>
@@ -526,13 +485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肋间|肋骨|肋骨中间|肋骨这块</t>
-    <rPh sb="0" eb="1">
-      <t>lei g</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>肋间</t>
     <rPh sb="0" eb="1">
       <t>lei g</t>
@@ -660,13 +612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>惊风|惊厥|四肢抽搐|颈项强直|发烧抽风|抽风|高热惊厥|发热抽搐|肢体抽搐|抽风翻白眼|感冒抽风|高烧抽风|热性惊厥|抽搐昏迷|身体抽搐|抽搐|抽风吐白沫|低烧抽风</t>
-    <rPh sb="0" eb="2">
-      <t>jing fen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>膈肌痉挛</t>
   </si>
   <si>
@@ -690,7 +635,7 @@
   </si>
   <si>
     <t>打嗝|呃逆|打饱嗝|嗳气打嗝|嗳气|膈逆|呃呃连声</t>
-    <rPh sb="0" eb="36">
+    <rPh sb="0" eb="25">
       <t>da g</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -754,13 +699,6 @@
   </si>
   <si>
     <t>满</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>痛|微痛|闷疼|胀疼|胀痛|闷胀|隐隐胀痛</t>
-    <rPh sb="0" eb="1">
-      <t>ton</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -774,6 +712,238 @@
     <t>满|胀满</t>
     <rPh sb="0" eb="1">
       <t>zhang ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上臂内侧痛</t>
+    <rPh sb="0" eb="2">
+      <t>shang bi nei ce teng ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上臂|肘臂|大臂|手臂上面|手臂上边|上肢</t>
+    <rPh sb="0" eb="2">
+      <t>shang b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上臂内侧|胳膊里面|肘臂里面|手臂里面那一边|上臂内侧肌肉|胳膊内侧|胳膊肘靠里那一侧|手臂内侧</t>
+    <rPh sb="0" eb="1197">
+      <t>shang bi nei</t>
+    </rPh>
+    <rPh sb="1197" eb="1199">
+      <t>ge b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支气管炎</t>
+    <rPh sb="0" eb="2">
+      <t>zhi qi guan ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形</t>
+    <rPh sb="0" eb="2">
+      <t>bian xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染</t>
+    <rPh sb="0" eb="2">
+      <t>gan ra</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺炎</t>
+    <rPh sb="0" eb="2">
+      <t>fei ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧偏头痛</t>
+    <rPh sb="0" eb="2">
+      <t>zuo c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧偏头痛</t>
+    <rPh sb="0" eb="2">
+      <t>c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头痛痛左侧</t>
+    <rPh sb="0" eb="2">
+      <t>tou tong tong zuo ban bi a</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头痛痛右侧</t>
+    <rPh sb="0" eb="2">
+      <t>tou ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧|左半边|左边</t>
+    <rPh sb="0" eb="2">
+      <t>zuo c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧|右半边|右边</t>
+    <rPh sb="0" eb="2">
+      <t>you c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头|头部</t>
+    <rPh sb="0" eb="1">
+      <t>tou b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头右侧痛</t>
+    <rPh sb="0" eb="2">
+      <t>you ce ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头偏侧痛</t>
+    <rPh sb="0" eb="2">
+      <t>to pian ce ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少气不足以息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺气不足</t>
+    <rPh sb="0" eb="2">
+      <t>fei qi bu z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少气|气短|气微|气少|气息短小</t>
+    <rPh sb="0" eb="1">
+      <t>shao q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咽痛充血</t>
+    <rPh sb="0" eb="2">
+      <t>yan ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咽炎</t>
+    <rPh sb="0" eb="2">
+      <t>yan ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咳嗽咽痛</t>
+    <rPh sb="0" eb="2">
+      <t>ke sou yan ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膝关节疼痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双腿膝盖</t>
+    <rPh sb="0" eb="2">
+      <t>shuang tui xi ga</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膝盖里面</t>
+    <rPh sb="0" eb="2">
+      <t>xi gai li mi a</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肘臂痉挛疼痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽着痛</t>
+    <rPh sb="0" eb="2">
+      <t>chou zhe ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痉挛</t>
+    <rPh sb="0" eb="2">
+      <t>jing lu a</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肋间神经炎</t>
+    <rPh sb="0" eb="1">
+      <t>lei g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛|微痛|闷疼|胀疼|胀痛|闷胀|隐隐胀痛|钻心地疼|钻心疼痛|摸着痛|隐痛|疼痛|痛疼|肿胀疼痛|隐隐作痛|酸痛|疼痛麻木|冰冷疼痛|游走性疼痛|肿疼痛|疼痛不适|有钝痛感</t>
+    <rPh sb="0" eb="1">
+      <t>ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肋间|肋骨|肋骨中间|肋骨这块|肋骨缝隙|肋骨之间|胸下面的骨头|肋骨间|肋下神经|胸椎中间|肚子旁边的骨头</t>
+    <rPh sb="0" eb="1">
+      <t>lei g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想吐吐不出来</t>
+    <rPh sb="0" eb="2">
+      <t>xiang tu tu bu chu la</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有想吐的感觉</t>
+    <rPh sb="0" eb="6">
+      <t>yoyou xiang tu de gan ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊风|惊厥|精跳|四肢抽搐|全身强直|颈项强直|身体僵硬|发烧抽风|抽风|高热惊厥|发热抽搐|肢体抽搐|抽风翻白眼|翻白眼|眼睛上饭翻|感冒抽风|高烧抽风|热性惊厥|抽搐昏迷|全身抽动|身体抽搐|抽搐|抽风吐白沫|低烧抽风|手脚抖动|嘴角抽动|眼角抽动|眼发白|四肢抽动|丧失意识|一抽一抽的</t>
+    <rPh sb="0" eb="2">
+      <t>jing fen</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1139,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D732AD4-B680-4840-9E26-A5B43E743CD3}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1212,501 +1382,679 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>21</v>
-      </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>92</v>
-      </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="B49" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="B50" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="B66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="B67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" t="s">
-        <v>114</v>
+      <c r="B75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1718,9 +2066,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83D1545-0954-B24D-B056-2A53BA1513E8}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1738,72 +2086,82 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1814,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07ADAE58-07B4-E94E-97C3-B33DD28771D9}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1839,72 +2197,87 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/excel_to_config/excel_data/symp_rule.xlsx
+++ b/excel_to_config/excel_data/symp_rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taohuadao/Downloads/毕业设计/DFA匹配算法/model/excel_to_config/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{211A20A0-4D2A-C045-92C7-0C95F99682BA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{21EDC0A8-41AB-5942-AADB-C0783971A48E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="460" windowWidth="16140" windowHeight="16500" xr2:uid="{A248186E-6FFC-AD46-9074-1FA74DF53F22}"/>
+    <workbookView xWindow="12180" yWindow="460" windowWidth="16140" windowHeight="16500" activeTab="1" xr2:uid="{A248186E-6FFC-AD46-9074-1FA74DF53F22}"/>
   </bookViews>
   <sheets>
     <sheet name="意图说法表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="动作词" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="198">
   <si>
     <t>动作</t>
     <rPh sb="0" eb="2">
@@ -140,13 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>痛|疼|疼痛</t>
-    <rPh sb="0" eb="1">
-      <t>ten</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上臂内侧</t>
     <rPh sb="0" eb="2">
       <t>shang bi bei c</t>
@@ -446,13 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长|起了|长了|长</t>
-    <rPh sb="0" eb="1">
-      <t>q</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>过敏|过敏瘙痒|过敏起疹|长大片红点|长疙瘩|长疙瘩痒|红肿痒|长小红点|长一片红|过敏起疙瘩</t>
     <rPh sb="0" eb="2">
       <t>guo mi</t>
@@ -559,13 +544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导致|引起</t>
-    <rPh sb="0" eb="2">
-      <t>dao zh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>干呕</t>
     <rPh sb="0" eb="2">
       <t>gan o</t>
@@ -583,13 +561,6 @@
     <t>想吐|恶心想吐</t>
     <rPh sb="0" eb="2">
       <t>xiang t</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呕吐|腹泻呕吐|胸闷呕吐|头痛呕吐|发烧呕吐|恶心呕吐|无力呕吐|呕吐腹泻|头晕胸闷呕吐|乏力呕吐|头晕呕吐|头痛呕吐|伴有呕吐症状</t>
-    <rPh sb="0" eb="2">
-      <t>ou t</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,11 +702,8 @@
   </si>
   <si>
     <t>上臂内侧|胳膊里面|肘臂里面|手臂里面那一边|上臂内侧肌肉|胳膊内侧|胳膊肘靠里那一侧|手臂内侧</t>
-    <rPh sb="0" eb="1197">
-      <t>shang bi nei</t>
-    </rPh>
-    <rPh sb="1197" eb="1199">
-      <t>ge b</t>
+    <rPh sb="0" eb="48">
+      <t>shang bi neige b</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -806,13 +774,6 @@
     <t>右侧|右半边|右边</t>
     <rPh sb="0" eb="2">
       <t>you c</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头|头部</t>
-    <rPh sb="0" eb="1">
-      <t>tou b</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -913,13 +874,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>痛|微痛|闷疼|胀疼|胀痛|闷胀|隐隐胀痛|钻心地疼|钻心疼痛|摸着痛|隐痛|疼痛|痛疼|肿胀疼痛|隐隐作痛|酸痛|疼痛麻木|冰冷疼痛|游走性疼痛|肿疼痛|疼痛不适|有钝痛感</t>
-    <rPh sb="0" eb="1">
-      <t>ton</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>肋间|肋骨|肋骨中间|肋骨这块|肋骨缝隙|肋骨之间|胸下面的骨头|肋骨间|肋下神经|胸椎中间|肚子旁边的骨头</t>
     <rPh sb="0" eb="1">
       <t>lei g</t>
@@ -944,6 +898,410 @@
     <t>惊风|惊厥|精跳|四肢抽搐|全身强直|颈项强直|身体僵硬|发烧抽风|抽风|高热惊厥|发热抽搐|肢体抽搐|抽风翻白眼|翻白眼|眼睛上饭翻|感冒抽风|高烧抽风|热性惊厥|抽搐昏迷|全身抽动|身体抽搐|抽搐|抽风吐白沫|低烧抽风|手脚抖动|嘴角抽动|眼角抽动|眼发白|四肢抽动|丧失意识|一抽一抽的</t>
     <rPh sb="0" eb="2">
       <t>jing fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口舌痛</t>
+    <rPh sb="0" eb="2">
+      <t>kou she ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口舌</t>
+    <rPh sb="0" eb="2">
+      <t>kou sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌头</t>
+    <rPh sb="0" eb="2">
+      <t>she tou liang c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口舌|嘴巴和舌头</t>
+    <rPh sb="0" eb="2">
+      <t>kou sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴巴</t>
+    <rPh sb="0" eb="2">
+      <t>zui b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌头|舌头两侧|舌尖|左边一半舌头|右边一半舌头|舌头中间|舌头的旁边|舌头侧面|整个舌头|舌头边缘</t>
+    <rPh sb="0" eb="1">
+      <t>she to</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目赤肿痛</t>
+    <rPh sb="0" eb="2">
+      <t>mu ch</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼睛</t>
+    <rPh sb="0" eb="2">
+      <t>yan jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肿痛</t>
+    <rPh sb="0" eb="2">
+      <t>zhong ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目赤</t>
+    <rPh sb="0" eb="2">
+      <t>mu ch</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发红</t>
+    <rPh sb="0" eb="2">
+      <t>fa hon</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结膜炎</t>
+    <rPh sb="0" eb="2">
+      <t>jie mo ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角膜炎</t>
+    <rPh sb="0" eb="2">
+      <t>jiao m y a</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆发红眼</t>
+    <rPh sb="0" eb="2">
+      <t>bao f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发红|充满红血丝|充血|发痒红肿|浮肿发红|灼热发红|发红肿痛|红肿</t>
+    <rPh sb="0" eb="2">
+      <t>fa hon</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急性</t>
+    <rPh sb="0" eb="2">
+      <t>ji xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼结膜</t>
+    <rPh sb="0" eb="2">
+      <t>yan jie m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头痛</t>
+    <rPh sb="0" eb="2">
+      <t>tou ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头痛欲裂</t>
+    <rPh sb="0" eb="2">
+      <t>tou tong yu li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头|头部|脑袋|脑壳|后脑勺</t>
+    <rPh sb="0" eb="1">
+      <t>tou b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肠鸣腹痛</t>
+    <rPh sb="0" eb="2">
+      <t>chang ming fu ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹痛</t>
+    <rPh sb="0" eb="2">
+      <t>f ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肠鸣</t>
+    <rPh sb="0" eb="1">
+      <t>chang da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肠鸣消化不良</t>
+    <rPh sb="0" eb="2">
+      <t>chang ming fu ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹痛</t>
+    <rPh sb="0" eb="2">
+      <t>fu ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肠鸣|肠胃胀气</t>
+    <rPh sb="0" eb="2">
+      <t>chang ming fu ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心烦</t>
+    <rPh sb="0" eb="2">
+      <t>xin fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心情</t>
+    <rPh sb="0" eb="2">
+      <t>xin qin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烦躁</t>
+    <rPh sb="0" eb="2">
+      <t>fan za</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心难受</t>
+    <rPh sb="0" eb="2">
+      <t>xin nan sho</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心烦|心烦意乱|没有耐心|发脾气|心情不好|心慌|闹心</t>
+    <rPh sb="0" eb="2">
+      <t>xin fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烦躁|焦躁|烦躁不安|焦躁不安|狂躁|狂躁不安|焦虑不安|易怒</t>
+    <rPh sb="0" eb="2">
+      <t>fan za</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通风引发脚后跟痛</t>
+    <rPh sb="0" eb="2">
+      <t>tong fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结石</t>
+    <rPh sb="0" eb="1">
+      <t>jie sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛风</t>
+    <rPh sb="0" eb="2">
+      <t>fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指</t>
+    <rPh sb="0" eb="2">
+      <t>shou zh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛风</t>
+    <rPh sb="0" eb="2">
+      <t>tong fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膝盖疼</t>
+    <rPh sb="0" eb="2">
+      <t>xi gai ten</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大脚拇指</t>
+    <rPh sb="0" eb="2">
+      <t>da jiao mu zh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口疮</t>
+    <rPh sb="0" eb="2">
+      <t>kou chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口疮</t>
+    <rPh sb="0" eb="1">
+      <t>kou she sheng chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口舌生疮</t>
+    <rPh sb="0" eb="2">
+      <t>kou she sehng chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口腔溃疡</t>
+    <rPh sb="0" eb="2">
+      <t>kou qiang kui yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口腔溃疡|嘴巴里长泡|舌头上有水泡|口腔黏膜上长泡|口腔黏膜损伤</t>
+    <rPh sb="0" eb="2">
+      <t>kou qiang kui yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起泡</t>
+    <rPh sb="0" eb="2">
+      <t>qi pa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长泡|起泡</t>
+    <rPh sb="0" eb="2">
+      <t>zhang pa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴巴|口腔|嘴唇内侧|嘴巴里</t>
+    <rPh sb="0" eb="2">
+      <t>zui b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长疮</t>
+    <rPh sb="0" eb="2">
+      <t>zhang chaun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长疮|有疮|起疮</t>
+    <rPh sb="0" eb="2">
+      <t>zhang chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龋肿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龋齿</t>
+  </si>
+  <si>
+    <t>龋齿</t>
+    <rPh sb="0" eb="2">
+      <t>qu ch</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肿痛|红肿疼痛|肿胀</t>
+    <rPh sb="0" eb="2">
+      <t>zhong ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龋齿|虫牙|蛀牙</t>
+    <rPh sb="0" eb="2">
+      <t>qu ch</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头左侧痛</t>
+    <rPh sb="0" eb="1">
+      <t>you ce ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呕吐|腹泻呕吐|胸闷呕吐|发烧呕吐|恶心呕吐|无力呕吐|呕吐腹泻|头晕胸闷呕吐|乏力呕吐|头晕呕吐|头痛呕吐|伴有呕吐症状</t>
+    <rPh sb="0" eb="2">
+      <t>ou t</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸肿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛|疼|微痛|闷疼|胀疼|胀痛|闷胀|隐隐胀痛|钻心地疼|钻心疼痛|摸着痛|隐痛|疼痛|痛疼|肿胀疼痛|隐隐作痛|酸痛|疼痛麻木|冰冷疼痛|游走性疼痛|肿疼痛|疼痛不适|有钝痛感|发痛|上火疼|剧痛|痛麻|疼痛难忍|阵痛</t>
+    <rPh sb="0" eb="1">
+      <t>ton</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1309,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D732AD4-B680-4840-9E26-A5B43E743CD3}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1382,679 +1740,1058 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
         <v>42</v>
       </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
         <v>56</v>
-      </c>
-      <c r="C45" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
         <v>57</v>
       </c>
-      <c r="B46" t="s">
-        <v>58</v>
-      </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="B49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="B50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="B54" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="B57" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="B58" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
         <v>76</v>
-      </c>
-      <c r="C59" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" t="s">
         <v>76</v>
-      </c>
-      <c r="C62" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
         <v>76</v>
-      </c>
-      <c r="C63" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
         <v>76</v>
-      </c>
-      <c r="C64" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="B67" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="B69" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="B70" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="B71" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="B83" t="s">
+        <v>149</v>
+      </c>
+      <c r="C83" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="B85" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="B86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="B90" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="B93" t="s">
+        <v>165</v>
+      </c>
+      <c r="C93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" t="s">
+        <v>166</v>
+      </c>
+      <c r="C94" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>167</v>
+      </c>
+      <c r="B95" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="B96" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="B98" t="s">
+        <v>176</v>
+      </c>
+      <c r="C98" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" t="s">
+        <v>171</v>
+      </c>
+      <c r="C99" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="B101" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>176</v>
+      </c>
+      <c r="B103" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>177</v>
+      </c>
+      <c r="B104" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="B106" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="B107" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="B108" t="s">
+        <v>182</v>
+      </c>
+      <c r="C108" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>184</v>
+      </c>
+      <c r="B109" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>187</v>
+      </c>
+      <c r="B110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C110" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="B111" t="s">
+        <v>189</v>
+      </c>
+      <c r="C111" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" t="s">
+        <v>191</v>
+      </c>
+      <c r="C112" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="B113" t="s">
+        <v>190</v>
+      </c>
+      <c r="C113" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>196</v>
+      </c>
+      <c r="B114" t="s">
+        <v>190</v>
+      </c>
+      <c r="C114" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2066,10 +2803,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83D1545-0954-B24D-B056-2A53BA1513E8}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2086,82 +2823,107 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2172,10 +2934,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07ADAE58-07B4-E94E-97C3-B33DD28771D9}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2197,87 +2959,107 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
